--- a/biology/Botanique/Myrte_à_écorce_orange/Myrte_à_écorce_orange.xlsx
+++ b/biology/Botanique/Myrte_à_écorce_orange/Myrte_à_écorce_orange.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myrte_%C3%A0_%C3%A9corce_orange</t>
+          <t>Myrte_à_écorce_orange</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Luma apiculata, en français Myrte luma ou Myrte à écorce orange[2], est une espèce d'arbre perennifolié de la famille des Myrtacées. Il pousse dans les forêts tempérées du Chili et de l'Argentine, particulièrement près des cours d'eau.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luma apiculata, en français Myrte luma ou Myrte à écorce orange, est une espèce d'arbre perennifolié de la famille des Myrtacées. Il pousse dans les forêts tempérées du Chili et de l'Argentine, particulièrement près des cours d'eau.
 Les colons espagnols lui donnèrent le nom d'Arrayán à cause de sa ressemblance avec l'« arrayán européen » (nom espagnol emprunté à l'arabe « Ar-Rayhan » pour désigner le myrte et signifiant « l'aromatique ») ou Myrte commun (Myrtus communis).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myrte_%C3%A0_%C3%A9corce_orange</t>
+          <t>Myrte_à_écorce_orange</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feuilles.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myrte_%C3%A0_%C3%A9corce_orange</t>
+          <t>Myrte_à_écorce_orange</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses fruits sont très appréciés au Chili et les fleurs sont une source importante pour la production de miel.
 Les Mapuches l'utilisaient comme plante médicinale. Il est aussi cultivé dans des jardins et utilisé en bonsaï, apprécié par son feuillage brillant à feuilles persistantes et par le beau contraste avec ses tiges rouges et minces. Il a été naturalisé dans les parties occidentales de l'Irlande et du Royaume-Uni. Il est représenté également en Espagne.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Myrte_%C3%A0_%C3%A9corce_orange</t>
+          <t>Myrte_à_écorce_orange</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,9 +597,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Arrayán a une aire de répartition qui recouvre l'Argentine (Chubut, Neuquen, Rio Negro), le Chili (Coquimbo, Valparaiso, O'Higgins, Maule, Bio Bio, Araucanie, Los Lagos, Aysen, Reg. Metropolitana) et les États-unis (Californie, introduit)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Arrayán a une aire de répartition qui recouvre l'Argentine (Chubut, Neuquen, Rio Negro), le Chili (Coquimbo, Valparaiso, O'Higgins, Maule, Bio Bio, Araucanie, Los Lagos, Aysen, Reg. Metropolitana) et les États-unis (Californie, introduit).
 </t>
         </is>
       </c>
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Myrte_%C3%A0_%C3%A9corce_orange</t>
+          <t>Myrte_à_écorce_orange</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,7 +630,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Eugenia affinis Gillies ex Hook. &amp; Arn. (synonyme ambigu)
@@ -639,7 +659,7 @@
 Myrceugenella grandjotii Kausel
 Myrceugenia apiculata (DC.) Nied.
 Myrceugenia apiculata var. australis Kausel
-Myrtus chekenilla Kuntze[3]
+Myrtus chekenilla Kuntze
 </t>
         </is>
       </c>
